--- a/update_gdp.xlsx
+++ b/update_gdp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/852953b44cd0ef15/Desktop/final project/Methane_emissions_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C3A24BD2-D321-40DA-9963-1771B3022B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D06F22D-2CDE-434D-890E-827AC85DCE1D}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C3A24BD2-D321-40DA-9963-1771B3022B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF6F06D9-799A-44C4-AF5D-9E630598AA8B}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24180" windowHeight="13695" xr2:uid="{D77F0496-E165-435D-86DE-EAAF370D9FD9}"/>
+    <workbookView xWindow="1560" yWindow="975" windowWidth="24180" windowHeight="13695" xr2:uid="{D77F0496-E165-435D-86DE-EAAF370D9FD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,12 +437,17 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
